--- a/Fulton Hogan Civil/23961/res_FHC-ITP-005 - Class 2 Crushed Rock.xlsx
+++ b/Fulton Hogan Civil/23961/res_FHC-ITP-005 - Class 2 Crushed Rock.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Fulton Hogan Civil\23961\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9BD4DA-C854-4A40-86CE-5EF870ED8F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A779A4E0-5C16-462C-8536-D4885115B7A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4035" yWindow="1065" windowWidth="28530" windowHeight="18450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8535" yWindow="1950" windowWidth="28530" windowHeight="18450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="res" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">res!$A$1:$H$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">res!$A$1:$H$21</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="123">
   <si>
     <t>type</t>
   </si>
@@ -100,70 +100,298 @@
     <t>2 - Construction Works</t>
   </si>
   <si>
-    <t xml:space="preserve">ACCEPTANCE CRITERIA: </t>
-  </si>
-  <si>
     <t>FHC-ITP-005 - Class 2 Crushed Rock Rev3</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FREQUENCY: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">REFERENCE DOCUMENTS: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">INSPECTION/TEST METHOD: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RECORD OF CONFORMITY: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RESPONSIBILITY: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2 </t>
-  </si>
-  <si>
     <t>3 - Testing Requirements</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2 </t>
+    <t>1.1 Check for correct documentation</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Prior to commencing any activity</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Ensure that all employees and subcontractors are:</t>
+  </si>
+  <si>
+    <t>– Using the correct and complete set of drawings</t>
+  </si>
+  <si>
+    <t>– All drawings are the latest revision</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: Drawings and drawing registers</t>
+  </si>
+  <si>
+    <t>INSPECTION/TEST METHOD: Visual inspection</t>
+  </si>
+  <si>
+    <t>RECORD OF CONFORMITY: This ITP signed</t>
+  </si>
+  <si>
+    <t>HP*</t>
+  </si>
+  <si>
+    <t>RESPONSIBILITY: Site Engineer / Site Foreman</t>
+  </si>
+  <si>
+    <t>1.2 Material Mix Design</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Crushed rock mixes proposed for use on specified works shall be registered in accordance with VicRoads Code of Practice for Registration of Crushed Rock Mixes RC500.02 as listed in Section 175</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: Cl 812.04 RC 500.02</t>
+  </si>
+  <si>
+    <t>INSPECTION/TEST METHOD: Document Review</t>
+  </si>
+  <si>
+    <t>RECORD OF CONFORMITY: Mix Design VicRoads Approval</t>
+  </si>
+  <si>
+    <t>RESPONSIBILITY: Site Engineer</t>
+  </si>
+  <si>
+    <t>1.3 Implementation of all measures and controls</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: All necessary measures and controls are being implemented, that is: OHSCP, PHSCP, PCMP, EMP, ECP, CEMP, ERA, QMP, CHMP, SWMS</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: OHSCP, PHSCP, PCMP, EMP, ECP, CEMP, ERA, QMP, CHMP, SWMS</t>
+  </si>
+  <si>
+    <t>INSPECTION/TEST METHOD: Visual Inspection</t>
+  </si>
+  <si>
+    <t>2.1 Transverse Joints</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Check prior to placing material</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Material should be spread to minimize number of joints. Transverse joints shall be offset from one layer to next by not less than 2 metres</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: Cl.304.07 (a), Cl.304.07 (c)</t>
+  </si>
+  <si>
+    <t>RECORD OF CONFORMITY: This ITP signed off</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>2.2 Longitudinal Joints</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Material should be spread to minimize number of joints. Longitudinal joints offset from one layer to next by not less than 150mm. Longitudinal joints to be located within 300mm from planned traffic lane lines or within 300 mm of the centre of a traffic lane.</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS:  Cl.304.07 (a), Cl.304.07 (d), Cl.304.07 (e)</t>
+  </si>
+  <si>
+    <t>2.3 Lot Size</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: A single lot shall be considered a single layer of 4000m2 or one days production in a single layer, whichever is lesser.</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: Cl.304.08 (b)(ii) Table 304.111</t>
+  </si>
+  <si>
+    <t>INSPECTION/TEST METHOD: Site Inspection</t>
+  </si>
+  <si>
+    <t>RECORD OF CONFORMITY: Signed ITP</t>
+  </si>
+  <si>
+    <t>2.4 Layer Thickness</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Each Lot</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: The maximum thickness of any pavement base layer shall not exceed 150 mm and the maximum thickness of any subbase layer shall not exceed 200 mm. The minimum thickness of any pavement layer shall be 4 times the nominal size of the material.</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: Cl 304.08(b)(v), Cl 304.08(b)(vi)</t>
+  </si>
+  <si>
+    <t>2.5 Proof Rolling</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Proof Roll each layer</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: No visible deformation or springing in presence of Superintendent's Rep.( Cl 173) Plant to comply with requirements of Cl 173.03.</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: 173.03</t>
+  </si>
+  <si>
+    <t>HP / WP</t>
+  </si>
+  <si>
+    <t>RESPONSIBILITY: Site Engineer &amp; Superintendent</t>
+  </si>
+  <si>
+    <t>AUTHORITY HOLDPOINT</t>
+  </si>
+  <si>
+    <t>holdpoint</t>
+  </si>
+  <si>
+    <t>3.1 Determine Testing Scale &amp; Initial Testing Frequency</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Prior to Testing</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: The Contractor shall initially test every lot for acceptance of compaction in accordance with the requirements of the Specification.  Testing of every lot shall continue until three consecutive lots of like material and/or work have achieved the standards specified.</t>
+  </si>
+  <si>
+    <t>• Scale B - The first lot of each pavement course shall be tested for post-compaction grading and PI. If the first lot each pavement course satisfies the specified post compaction requirements in Clause 304.10(a) and (b), as applicable, no further post-compaction testing will be required for that pavement course.</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: Table 204.161</t>
+  </si>
+  <si>
+    <t>• Cl.304.08 (a)</t>
+  </si>
+  <si>
+    <t>• Cl.304.11 (b)</t>
+  </si>
+  <si>
+    <t>• Cl.304.11 (c)(i)</t>
+  </si>
+  <si>
+    <t>• Table 304.111</t>
+  </si>
+  <si>
+    <t>INSPECTION/TEST METHOD: Document Review/ Site Inspection</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>RESPONSIBILITY: Project Engineer</t>
+  </si>
+  <si>
+    <t>3.2 Compaction Testing</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Every Lot, Every second lot (reduced frequency)</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Minimum Characteristic Density Ratio (CDR) of not less than 98%, using Modified compaction effort.</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: Cl304.08 Table 3040.061</t>
+  </si>
+  <si>
+    <t>• Cl 304.11 (b) Table 304.111</t>
+  </si>
+  <si>
+    <t>INSPECTION/TEST METHOD: Test point</t>
+  </si>
+  <si>
+    <t>RECORD OF CONFORMITY: This ITP signed off; Test reports</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>3.3 Compaction Testing (Small Lots)</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Any lot which has a surface area less than 500 m2 may be treated as a small area. Acceptance of the lot shall be based on the mean values of 3 individual tests. Minimum Compaction shall be 100% modified compaction effort.</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: 173.04 d</t>
+  </si>
+  <si>
+    <t>INSPECTION/TEST METHOD: Test Point</t>
+  </si>
+  <si>
+    <t>RECORD OF CONFORMITY: Test Records, Lot Register</t>
+  </si>
+  <si>
+    <t>3.4 Material Grading - Post Compaction (Class 2 &amp; 3 Only)</t>
+  </si>
+  <si>
+    <t>FREQUENCY: First Lot Only</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Post compaction material grading results must comply with the following:</t>
+  </si>
+  <si>
+    <t>• Class 4 - N/A</t>
+  </si>
+  <si>
+    <t>• Class 3 - As per Table 304.101 - VR Spec. 304.10</t>
+  </si>
+  <si>
+    <t>• Class 2 - As per Table 304.101 - VR Spec. 304.10</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: Cl 304.101, Cl 304.111</t>
+  </si>
+  <si>
+    <t>3.5 Plasticity Index - Post Compaction (Class 2 &amp; 3 Only)</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Post compaction PI results must comply with the following:</t>
+  </si>
+  <si>
+    <t>• Class 3 - 0 to 10</t>
+  </si>
+  <si>
+    <t>• Class 2 - 0 to 6</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: Cl 304.10 Cl 304.11 Table 304.103</t>
+  </si>
+  <si>
+    <t>3.6 Survey Conformance</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Each lot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACCEPTANCE CRITERIA: Layer to be finished to a smooth and uniform surface and after compaction shall conform within the following limits: </t>
+  </si>
+  <si>
+    <t>• Range x = +6, -16mm</t>
+  </si>
+  <si>
+    <t>• Max S = 15 mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• 40 measurements per lot (Minimum) </t>
+  </si>
+  <si>
+    <t>○ Shape: no point deviation &gt; 8mm from 3m straight edge in any direction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">○ Surface level tolerances: </t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: Cl 304.06(b, d, i) Drawings Table 304.062</t>
+  </si>
+  <si>
+    <t>INSPECTION/TEST METHOD: Survey</t>
+  </si>
+  <si>
+    <t>RECORD OF CONFORMITY: This ITP signed off; Survey Report</t>
+  </si>
+  <si>
+    <t>SCP</t>
+  </si>
+  <si>
+    <t>RESPONSIBILITY: Site Engineer/ Surveyor</t>
   </si>
 </sst>
 </file>
@@ -306,7 +534,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -514,6 +742,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -675,7 +909,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -694,6 +928,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1051,10 +1288,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I234"/>
+  <dimension ref="A1:I254"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1097,7 +1334,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
@@ -1107,7 +1344,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I2" s="6"/>
     </row>
@@ -1172,7 +1409,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -1186,7 +1423,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -1199,8 +1436,8 @@
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>29</v>
+      <c r="B9" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -1227,8 +1464,8 @@
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>30</v>
+      <c r="B11" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -1255,8 +1492,8 @@
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>31</v>
+      <c r="B13" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -1283,6 +1520,9 @@
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B15" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -1309,7 +1549,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1334,10 +1574,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1347,11 +1587,11 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>34</v>
+      <c r="A20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1362,10 +1602,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>28</v>
+        <v>11</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1375,11 +1615,11 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>14</v>
+      <c r="A22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1392,8 +1632,8 @@
       <c r="A23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>25</v>
+      <c r="B23" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1420,8 +1660,8 @@
       <c r="A25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>29</v>
+      <c r="B25" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1448,8 +1688,8 @@
       <c r="A27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>30</v>
+      <c r="B27" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1476,8 +1716,8 @@
       <c r="A29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>31</v>
+      <c r="B29" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1504,6 +1744,9 @@
       <c r="A31" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B31" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -1530,7 +1773,7 @@
         <v>13</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -1555,10 +1798,10 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -1568,11 +1811,11 @@
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>33</v>
+      <c r="A36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -1583,10 +1826,10 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>28</v>
+        <v>11</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -1596,11 +1839,11 @@
       <c r="H37" s="2"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>14</v>
+      <c r="A38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -1613,8 +1856,8 @@
       <c r="A39" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>25</v>
+      <c r="B39" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -1641,8 +1884,8 @@
       <c r="A41" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>29</v>
+      <c r="B41" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -1669,8 +1912,8 @@
       <c r="A43" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>30</v>
+      <c r="B43" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -1697,8 +1940,8 @@
       <c r="A45" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>31</v>
+      <c r="B45" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -1725,6 +1968,9 @@
       <c r="A47" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B47" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -1751,7 +1997,7 @@
         <v>13</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -1776,10 +2022,10 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -1789,11 +2035,11 @@
       <c r="H51" s="2"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>24</v>
+      <c r="A52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -1803,11 +2049,11 @@
       <c r="H52" s="2"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>35</v>
+      <c r="A53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -1817,11 +2063,11 @@
       <c r="H53" s="2"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>28</v>
+      <c r="A54" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -1831,11 +2077,11 @@
       <c r="H54" s="2"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>14</v>
+      <c r="A55" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -1848,8 +2094,8 @@
       <c r="A56" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>25</v>
+      <c r="B56" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -1876,8 +2122,8 @@
       <c r="A58" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>29</v>
+      <c r="B58" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -1904,8 +2150,8 @@
       <c r="A60" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>30</v>
+      <c r="B60" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -1932,8 +2178,8 @@
       <c r="A62" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>31</v>
+      <c r="B62" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -1960,6 +2206,9 @@
       <c r="A64" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B64" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -1986,7 +2235,7 @@
         <v>13</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -2011,10 +2260,10 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -2024,11 +2273,11 @@
       <c r="H68" s="2"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>39</v>
+      <c r="A69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -2039,10 +2288,10 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>28</v>
+        <v>11</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -2052,11 +2301,11 @@
       <c r="H70" s="2"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>14</v>
+      <c r="A71" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -2069,8 +2318,8 @@
       <c r="A72" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>25</v>
+      <c r="B72" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -2097,8 +2346,8 @@
       <c r="A74" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B74" s="4" t="s">
-        <v>29</v>
+      <c r="B74" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -2125,8 +2374,8 @@
       <c r="A76" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>30</v>
+      <c r="B76" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -2153,8 +2402,8 @@
       <c r="A78" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B78" s="4" t="s">
-        <v>31</v>
+      <c r="B78" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -2181,6 +2430,9 @@
       <c r="A80" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B80" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -2207,7 +2459,7 @@
         <v>13</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -2232,10 +2484,10 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -2245,11 +2497,11 @@
       <c r="H84" s="2"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>38</v>
+      <c r="A85" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -2260,10 +2512,10 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>28</v>
+        <v>11</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
@@ -2273,11 +2525,11 @@
       <c r="H86" s="2"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>14</v>
+      <c r="A87" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -2290,8 +2542,8 @@
       <c r="A88" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>25</v>
+      <c r="B88" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -2318,8 +2570,8 @@
       <c r="A90" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B90" s="4" t="s">
-        <v>29</v>
+      <c r="B90" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -2346,8 +2598,8 @@
       <c r="A92" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>30</v>
+      <c r="B92" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -2374,8 +2626,8 @@
       <c r="A94" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B94" s="4" t="s">
-        <v>31</v>
+      <c r="B94" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -2402,6 +2654,9 @@
       <c r="A96" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B96" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -2428,7 +2683,7 @@
         <v>13</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
@@ -2453,10 +2708,10 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
@@ -2466,11 +2721,11 @@
       <c r="H100" s="2"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>37</v>
+      <c r="A101" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
@@ -2481,10 +2736,10 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>28</v>
+        <v>11</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -2494,11 +2749,11 @@
       <c r="H102" s="2"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>14</v>
+      <c r="A103" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
@@ -2511,8 +2766,8 @@
       <c r="A104" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>25</v>
+      <c r="B104" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
@@ -2539,8 +2794,8 @@
       <c r="A106" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B106" s="4" t="s">
-        <v>29</v>
+      <c r="B106" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
@@ -2567,8 +2822,8 @@
       <c r="A108" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B108" s="1" t="s">
-        <v>30</v>
+      <c r="B108" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
@@ -2595,8 +2850,8 @@
       <c r="A110" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B110" s="4" t="s">
-        <v>31</v>
+      <c r="B110" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
@@ -2623,6 +2878,9 @@
       <c r="A112" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B112" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -2649,7 +2907,7 @@
         <v>13</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
@@ -2674,10 +2932,10 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
@@ -2687,11 +2945,11 @@
       <c r="H116" s="2"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>36</v>
+      <c r="A117" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
@@ -2702,10 +2960,10 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>28</v>
+        <v>11</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
@@ -2715,11 +2973,11 @@
       <c r="H118" s="2"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>14</v>
+      <c r="A119" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
@@ -2732,8 +2990,8 @@
       <c r="A120" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B120" s="1" t="s">
-        <v>25</v>
+      <c r="B120" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
@@ -2760,8 +3018,8 @@
       <c r="A122" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B122" s="4" t="s">
-        <v>29</v>
+      <c r="B122" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
@@ -2788,8 +3046,8 @@
       <c r="A124" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B124" s="1" t="s">
-        <v>30</v>
+      <c r="B124" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
@@ -2816,8 +3074,8 @@
       <c r="A126" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B126" s="4" t="s">
-        <v>31</v>
+      <c r="B126" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
@@ -2844,6 +3102,9 @@
       <c r="A128" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B128" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
@@ -2870,7 +3131,7 @@
         <v>13</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
@@ -2895,10 +3156,10 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
@@ -2908,11 +3169,11 @@
       <c r="H132" s="2"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B133" s="5" t="s">
-        <v>40</v>
+      <c r="A133" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
@@ -2922,11 +3183,11 @@
       <c r="H133" s="2"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>41</v>
+      <c r="A134" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
@@ -2936,11 +3197,11 @@
       <c r="H134" s="2"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B135" s="4" t="s">
-        <v>28</v>
+      <c r="A135" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
@@ -2950,11 +3211,11 @@
       <c r="H135" s="2"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>14</v>
+      <c r="A136" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
@@ -2964,11 +3225,11 @@
       <c r="H136" s="2"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>25</v>
+      <c r="A137" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
@@ -2981,8 +3242,8 @@
       <c r="A138" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B138" s="1" t="s">
-        <v>14</v>
+      <c r="B138" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
@@ -2995,8 +3256,8 @@
       <c r="A139" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B139" s="4" t="s">
-        <v>29</v>
+      <c r="B139" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
@@ -3010,7 +3271,7 @@
         <v>13</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
@@ -3024,7 +3285,7 @@
         <v>13</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
@@ -3052,7 +3313,7 @@
         <v>13</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
@@ -3065,8 +3326,8 @@
       <c r="A144" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B144" s="1" t="s">
-        <v>14</v>
+      <c r="B144" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
@@ -3079,6 +3340,9 @@
       <c r="A145" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B145" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
@@ -3090,8 +3354,8 @@
       <c r="A146" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B146" s="1" t="s">
-        <v>14</v>
+      <c r="B146" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
@@ -3104,8 +3368,8 @@
       <c r="A147" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B147" s="1" t="s">
-        <v>32</v>
+      <c r="B147" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
@@ -3130,10 +3394,10 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
@@ -3143,11 +3407,11 @@
       <c r="H149" s="2"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B150" s="3" t="s">
-        <v>46</v>
+      <c r="A150" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
@@ -3161,7 +3425,7 @@
         <v>13</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
@@ -3189,7 +3453,7 @@
         <v>13</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
@@ -3216,8 +3480,8 @@
       <c r="A155" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B155" s="4" t="s">
-        <v>29</v>
+      <c r="B155" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
@@ -3242,10 +3506,10 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
@@ -3255,11 +3519,11 @@
       <c r="H157" s="2"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>14</v>
+      <c r="A158" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
@@ -3273,7 +3537,7 @@
         <v>13</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
@@ -3300,6 +3564,9 @@
       <c r="A161" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B161" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
@@ -3325,8 +3592,8 @@
       <c r="A163" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B163" s="1" t="s">
-        <v>32</v>
+      <c r="B163" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
@@ -3339,8 +3606,8 @@
       <c r="A164" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B164" s="1" t="s">
-        <v>14</v>
+      <c r="B164" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
@@ -3351,10 +3618,10 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
@@ -3364,11 +3631,11 @@
       <c r="H165" s="2"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B166" s="3" t="s">
-        <v>45</v>
+      <c r="A166" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
@@ -3381,8 +3648,8 @@
       <c r="A167" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B167" s="4" t="s">
-        <v>28</v>
+      <c r="B167" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
@@ -3395,8 +3662,8 @@
       <c r="A168" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B168" s="1" t="s">
-        <v>14</v>
+      <c r="B168" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
@@ -3410,7 +3677,7 @@
         <v>13</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
@@ -3424,7 +3691,7 @@
         <v>13</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
@@ -3437,8 +3704,8 @@
       <c r="A171" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B171" s="4" t="s">
-        <v>29</v>
+      <c r="B171" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
@@ -3452,7 +3719,7 @@
         <v>13</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
@@ -3466,7 +3733,7 @@
         <v>13</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
@@ -3477,10 +3744,10 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
@@ -3490,11 +3757,11 @@
       <c r="H174" s="2"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A175" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>31</v>
+      <c r="A175" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
@@ -3507,8 +3774,8 @@
       <c r="A176" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B176" s="1" t="s">
-        <v>14</v>
+      <c r="B176" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
@@ -3521,6 +3788,9 @@
       <c r="A177" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B177" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
@@ -3533,7 +3803,7 @@
         <v>13</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
@@ -3547,7 +3817,7 @@
         <v>13</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
@@ -3560,8 +3830,8 @@
       <c r="A180" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B180" s="1" t="s">
-        <v>14</v>
+      <c r="B180" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
@@ -3572,10 +3842,10 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
@@ -3585,11 +3855,11 @@
       <c r="H181" s="2"/>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A182" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B182" s="3" t="s">
-        <v>44</v>
+      <c r="A182" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
@@ -3602,8 +3872,8 @@
       <c r="A183" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B183" s="4" t="s">
-        <v>28</v>
+      <c r="B183" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
@@ -3616,8 +3886,8 @@
       <c r="A184" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B184" s="1" t="s">
-        <v>14</v>
+      <c r="B184" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
@@ -3631,7 +3901,7 @@
         <v>13</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
@@ -3645,7 +3915,7 @@
         <v>13</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
@@ -3658,8 +3928,8 @@
       <c r="A187" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B187" s="4" t="s">
-        <v>29</v>
+      <c r="B187" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
@@ -3673,7 +3943,7 @@
         <v>13</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
@@ -3687,7 +3957,7 @@
         <v>13</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
@@ -3698,10 +3968,10 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
@@ -3711,11 +3981,11 @@
       <c r="H190" s="2"/>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A191" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B191" s="4" t="s">
-        <v>31</v>
+      <c r="A191" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
@@ -3728,8 +3998,8 @@
       <c r="A192" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B192" s="1" t="s">
-        <v>14</v>
+      <c r="B192" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
@@ -3742,6 +4012,9 @@
       <c r="A193" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B193" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
       <c r="E193" s="2"/>
@@ -3754,7 +4027,7 @@
         <v>13</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
@@ -3768,7 +4041,7 @@
         <v>13</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
@@ -3782,7 +4055,7 @@
         <v>13</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
@@ -3793,10 +4066,10 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
@@ -3806,11 +4079,11 @@
       <c r="H197" s="2"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A198" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B198" s="3" t="s">
-        <v>43</v>
+      <c r="A198" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
@@ -3824,7 +4097,7 @@
         <v>13</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
@@ -3852,7 +4125,7 @@
         <v>13</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
@@ -3880,7 +4153,7 @@
         <v>13</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
@@ -3908,7 +4181,7 @@
         <v>13</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
@@ -3935,8 +4208,8 @@
       <c r="A207" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B207" s="4" t="s">
-        <v>31</v>
+      <c r="B207" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
@@ -3961,7 +4234,10 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
@@ -3971,11 +4247,11 @@
       <c r="H209" s="2"/>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A210" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>14</v>
+      <c r="A210" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
@@ -3988,8 +4264,8 @@
       <c r="A211" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B211" s="1" t="s">
-        <v>32</v>
+      <c r="B211" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
@@ -4014,10 +4290,10 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>15</v>
+        <v>106</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
@@ -4027,11 +4303,11 @@
       <c r="H213" s="2"/>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A214" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B214" s="3" t="s">
-        <v>42</v>
+      <c r="A214" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
@@ -4044,8 +4320,8 @@
       <c r="A215" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B215" s="4" t="s">
-        <v>28</v>
+      <c r="B215" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
@@ -4059,7 +4335,7 @@
         <v>13</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
@@ -4073,7 +4349,7 @@
         <v>13</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
@@ -4086,8 +4362,8 @@
       <c r="A218" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B218" s="1" t="s">
-        <v>14</v>
+      <c r="B218" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
@@ -4100,8 +4376,8 @@
       <c r="A219" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B219" s="4" t="s">
-        <v>29</v>
+      <c r="B219" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
@@ -4115,7 +4391,7 @@
         <v>13</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
@@ -4129,7 +4405,7 @@
         <v>13</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
@@ -4142,8 +4418,8 @@
       <c r="A222" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B222" s="1" t="s">
-        <v>14</v>
+      <c r="B222" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
@@ -4156,8 +4432,8 @@
       <c r="A223" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B223" s="4" t="s">
-        <v>31</v>
+      <c r="B223" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
@@ -4171,7 +4447,7 @@
         <v>13</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
@@ -4184,6 +4460,9 @@
       <c r="A225" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B225" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
@@ -4196,7 +4475,7 @@
         <v>13</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
@@ -4210,7 +4489,7 @@
         <v>13</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
@@ -4221,10 +4500,10 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
@@ -4234,11 +4513,11 @@
       <c r="H228" s="2"/>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A229" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B229" s="1" t="s">
-        <v>15</v>
+      <c r="A229" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
@@ -4248,47 +4527,327 @@
       <c r="H229" s="2"/>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A230" s="7" t="s">
+      <c r="A230" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B230" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C230" s="2"/>
+      <c r="D230" s="2"/>
+      <c r="E230" s="2"/>
+      <c r="F230" s="2"/>
+      <c r="G230" s="2"/>
+      <c r="H230" s="2"/>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C231" s="2"/>
+      <c r="D231" s="2"/>
+      <c r="E231" s="2"/>
+      <c r="F231" s="2"/>
+      <c r="G231" s="2"/>
+      <c r="H231" s="2"/>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C232" s="2"/>
+      <c r="D232" s="2"/>
+      <c r="E232" s="2"/>
+      <c r="F232" s="2"/>
+      <c r="G232" s="2"/>
+      <c r="H232" s="2"/>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C233" s="2"/>
+      <c r="D233" s="2"/>
+      <c r="E233" s="2"/>
+      <c r="F233" s="2"/>
+      <c r="G233" s="2"/>
+      <c r="H233" s="2"/>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C234" s="2"/>
+      <c r="D234" s="2"/>
+      <c r="E234" s="2"/>
+      <c r="F234" s="2"/>
+      <c r="G234" s="2"/>
+      <c r="H234" s="2"/>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C235" s="2"/>
+      <c r="D235" s="2"/>
+      <c r="E235" s="2"/>
+      <c r="F235" s="2"/>
+      <c r="G235" s="2"/>
+      <c r="H235" s="2"/>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C236" s="2"/>
+      <c r="D236" s="2"/>
+      <c r="E236" s="2"/>
+      <c r="F236" s="2"/>
+      <c r="G236" s="2"/>
+      <c r="H236" s="2"/>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C237" s="2"/>
+      <c r="D237" s="2"/>
+      <c r="E237" s="2"/>
+      <c r="F237" s="2"/>
+      <c r="G237" s="2"/>
+      <c r="H237" s="2"/>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C238" s="2"/>
+      <c r="D238" s="2"/>
+      <c r="E238" s="2"/>
+      <c r="F238" s="2"/>
+      <c r="G238" s="2"/>
+      <c r="H238" s="2"/>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C239" s="2"/>
+      <c r="D239" s="2"/>
+      <c r="E239" s="2"/>
+      <c r="F239" s="2"/>
+      <c r="G239" s="2"/>
+      <c r="H239" s="2"/>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C240" s="2"/>
+      <c r="D240" s="2"/>
+      <c r="E240" s="2"/>
+      <c r="F240" s="2"/>
+      <c r="G240" s="2"/>
+      <c r="H240" s="2"/>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C241" s="2"/>
+      <c r="D241" s="2"/>
+      <c r="E241" s="2"/>
+      <c r="F241" s="2"/>
+      <c r="G241" s="2"/>
+      <c r="H241" s="2"/>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C242" s="2"/>
+      <c r="D242" s="2"/>
+      <c r="E242" s="2"/>
+      <c r="F242" s="2"/>
+      <c r="G242" s="2"/>
+      <c r="H242" s="2"/>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B243" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C243" s="2"/>
+      <c r="D243" s="2"/>
+      <c r="E243" s="2"/>
+      <c r="F243" s="2"/>
+      <c r="G243" s="2"/>
+      <c r="H243" s="2"/>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C244" s="2"/>
+      <c r="D244" s="2"/>
+      <c r="E244" s="2"/>
+      <c r="F244" s="2"/>
+      <c r="G244" s="2"/>
+      <c r="H244" s="2"/>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C245" s="2"/>
+      <c r="D245" s="2"/>
+      <c r="E245" s="2"/>
+      <c r="F245" s="2"/>
+      <c r="G245" s="2"/>
+      <c r="H245" s="2"/>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C246" s="2"/>
+      <c r="D246" s="2"/>
+      <c r="E246" s="2"/>
+      <c r="F246" s="2"/>
+      <c r="G246" s="2"/>
+      <c r="H246" s="2"/>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C247" s="2"/>
+      <c r="D247" s="2"/>
+      <c r="E247" s="2"/>
+      <c r="F247" s="2"/>
+      <c r="G247" s="2"/>
+      <c r="H247" s="2"/>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C248" s="2"/>
+      <c r="D248" s="2"/>
+      <c r="E248" s="2"/>
+      <c r="F248" s="2"/>
+      <c r="G248" s="2"/>
+      <c r="H248" s="2"/>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C249" s="2"/>
+      <c r="D249" s="2"/>
+      <c r="E249" s="2"/>
+      <c r="F249" s="2"/>
+      <c r="G249" s="2"/>
+      <c r="H249" s="2"/>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A250" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B230" s="7" t="s">
+      <c r="B250" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A231" s="7" t="s">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A251" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B231" s="7" t="s">
+      <c r="B251" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A232" s="7" t="s">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A252" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B232" s="7" t="s">
+      <c r="B252" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A233" s="7" t="s">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A253" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B233" s="7" t="s">
+      <c r="B253" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A234" s="7" t="s">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A254" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B234" s="7" t="s">
+      <c r="B254" s="7" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H19" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H21" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
